--- a/static/templates_base_interna/4 AUDITORIA AGIL/2  Macroprocesos y Procesos Empresa Privada.xlsx
+++ b/static/templates_base_interna/4 AUDITORIA AGIL/2  Macroprocesos y Procesos Empresa Privada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\2 ARCHIVOS AUDITORIA INTERNA\4 AUDITORIA AGIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\4 AUDITORIA AGIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C36202-F9DB-4DFF-A323-38BC99C6F4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -296,12 +297,6 @@
     <t>Auditoría de Procesos</t>
   </si>
   <si>
-    <t xml:space="preserve">                           Entidad XXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>Daños o pérdida de inventario</t>
   </si>
   <si>
@@ -339,12 +334,18 @@
   </si>
   <si>
     <t>Reviso</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,20 +542,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +631,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +672,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -735,7 +739,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1054,11 +1064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,543 +1087,548 @@
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="J8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>0.7</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>5</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="9">
         <v>0.6</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="10">
         <v>4</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="9">
         <v>0.75</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <v>3</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>0.8</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>4</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <v>0.7</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="10">
         <v>5</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="9">
         <v>0.8</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="10">
         <v>4</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <v>0.75</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="10">
         <v>4</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <v>0.8</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="10">
         <v>5</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>0.75</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="10">
         <v>4</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="9">
         <v>0.8</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="10">
         <v>5</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <v>0.7</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <v>5</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="22">
         <v>0.8</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="23">
         <v>4</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="27"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1622,14 +1637,20 @@
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="36"/>
+      <c r="E44" s="33"/>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="37" t="s">
-        <v>100</v>
+      <c r="E45" s="34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C11:F11"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
